--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/29_Elazığ_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/29_Elazığ_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB6E9C0D-7B29-4632-AE58-743C88C79C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31CF9910-A340-4687-B49E-070FD6166A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{40A6FE0E-1EFD-40B9-8B32-CFB7A2FF869E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{2A785D03-6788-44E7-9CF9-12FE5ADF7A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9D65D291-C4AE-48B3-90D9-323226CA9D48}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0869C469-49AC-426D-8EB9-B3D5C7E2625C}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{50C4C134-7221-4075-A703-4B0A82F00550}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{2A7ADCA9-E618-4A1E-A3E7-3F428E3C2527}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{E2976AD0-E4FB-4E1C-AC75-0023C42F8B63}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{DD96E1AD-B5FA-4587-8A6B-28E641BC3B1B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{0497D5F5-08AC-4A33-87FD-E0B087303F20}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6AB5A9A6-56C8-4DA5-88C5-912EFA935DC4}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2A34C57D-D509-4E4A-90EB-BF90FF811123}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{DBE483A5-32E5-4048-AAF3-924C1BC74061}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{3B54CD0C-CFC1-41BE-ADB2-B62298F234DC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{089D1DFE-6B09-48EC-AECB-A3389E49094C}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{5AC21B9C-E3B1-40D6-8F2D-24DB3CEC60B7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{6258780E-31A1-4730-80E1-28525639EC90}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5155AFC-0445-44CA-94A2-6C2715A23DCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433208EE-774F-4029-9E35-D6D12A967CA4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2554,7 +2554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2ECE91-1D6B-4ACE-BD90-8FD15EC6AEF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365C5343-896C-4730-8FEB-6D1837A32F81}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3840,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A353A4-BCFD-4D6A-A948-318709C38CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30422B6-EA4E-4EF7-92DD-04CABD8DE080}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5118,7 +5118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502C1B8-DF74-475E-BB32-5A81A4B09746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE0897E-BFE0-4F9F-8F4E-C72F079F22C0}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6388,7 +6388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F443B9-E52B-44D0-91AE-209B4B7997C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2C5423-9860-4B45-A814-B400CD91E75C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7665,7 +7665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB7F5E0-23E7-4112-842B-BEB97CB8A4C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46605F9A-760D-4366-8D55-36DB2755B02B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8944,7 +8944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001E457-F4E6-4A85-8346-814E35B78AA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7175427F-3F56-4787-A491-5A1F44133A66}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10221,7 +10221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFF3800-1974-4FE1-837D-B01268EB1F54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D521DAD0-0216-4F1A-AA3A-339AA28194CD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11498,7 +11498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF036E53-0B8A-47CA-A412-2B88D07A29A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A807090D-0455-4A04-B3EE-39443EB9A72E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12783,7 +12783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8D415-803A-44F6-94D8-D227EC254A01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924AE919-E9D9-48C3-A2CC-0A6B328356ED}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14060,7 +14060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559F84FB-2C28-4809-A598-CDAF48279063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8B3EC4-1DDB-4F54-8409-B90CD2145C2D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15345,7 +15345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37187D34-0FD6-441E-8A09-0BA18F1CEC36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE2E027-DEAE-4D1D-92CF-B30195F95C91}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
